--- a/MYTRED/R_calc_Mytred_2020/Data/Mytred_Byss_Salinity_2021.xlsx
+++ b/MYTRED/R_calc_Mytred_2020/Data/Mytred_Byss_Salinity_2021.xlsx
@@ -1,428 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\Mytred\Mytred_Summer_2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="list1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$H$201</definedName>
-  </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="13">
   <si>
     <t>Salinity</t>
   </si>
   <si>
-    <t>Plate_ID</t>
+    <t>Plate_Num</t>
   </si>
   <si>
-    <t>Mus_ID</t>
+    <t>Mus_num</t>
   </si>
   <si>
     <t>Force</t>
   </si>
   <si>
-    <t>Size</t>
+    <t>Length</t>
   </si>
   <si>
     <t>Wtotal</t>
   </si>
   <si>
-    <t>Morphotype</t>
+    <t>Morph_type</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
     <t>t</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
     <t>e</t>
-  </si>
-  <si>
-    <t>dead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -430,310 +95,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -782,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -991,23 +370,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,10 +413,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
@@ -1053,13 +436,10 @@
         <v>1.468</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -1070,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.682</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="E3">
         <v>24.2</v>
@@ -1079,13 +459,10 @@
         <v>1.37</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -1096,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="E4">
         <v>25.46</v>
@@ -1105,13 +482,10 @@
         <v>1.262</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1122,22 +496,19 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.723</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="E5">
         <v>28.35</v>
       </c>
       <c r="F5">
-        <v>1.632</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1148,22 +519,22 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>28.6</v>
       </c>
       <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -1180,16 +551,13 @@
         <v>21.63</v>
       </c>
       <c r="F7">
-        <v>0.825</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1200,22 +568,19 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0.171</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E8">
         <v>25.67</v>
       </c>
       <c r="F8">
-        <v>1.346</v>
+        <v>1.3460000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1226,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0.367</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="E9">
         <v>23.33</v>
@@ -1235,13 +600,10 @@
         <v>1.056</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1252,22 +614,19 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0.583</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="E10">
         <v>23.72</v>
       </c>
       <c r="F10">
-        <v>1.195</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1284,16 +643,13 @@
         <v>23.93</v>
       </c>
       <c r="F11">
-        <v>1.209</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1304,22 +660,19 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0.286</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="E12">
         <v>31.44</v>
       </c>
       <c r="F12">
-        <v>2.634</v>
+        <v>2.6339999999999999</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1330,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>26.4</v>
@@ -1339,13 +692,10 @@
         <v>1.702</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1356,22 +706,19 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>1.584</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="E14">
         <v>31.28</v>
       </c>
       <c r="F14">
-        <v>2.459</v>
+        <v>2.4590000000000001</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1382,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>24.39</v>
@@ -1391,13 +738,10 @@
         <v>1.157</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1414,16 +758,13 @@
         <v>23.04</v>
       </c>
       <c r="F16">
-        <v>1.237</v>
+        <v>1.2370000000000001</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1440,16 +781,13 @@
         <v>28.61</v>
       </c>
       <c r="F17">
-        <v>2.195</v>
+        <v>2.1949999999999998</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1466,16 +804,13 @@
         <v>19.63</v>
       </c>
       <c r="F18">
-        <v>0.648</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1486,22 +821,19 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="E19">
         <v>24.73</v>
       </c>
       <c r="F19">
-        <v>1.509</v>
+        <v>1.5089999999999999</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -1512,22 +844,19 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E20">
         <v>21.9</v>
       </c>
       <c r="F20">
-        <v>1.059</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1547,13 +876,10 @@
         <v>1.375</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1573,13 +899,10 @@
         <v>1.897</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -1599,13 +922,10 @@
         <v>1.841</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1625,13 +945,10 @@
         <v>0.92</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -1651,13 +968,10 @@
         <v>1.03</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -1674,16 +988,13 @@
         <v>22.2</v>
       </c>
       <c r="F26">
-        <v>1.039</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -1703,13 +1014,10 @@
         <v>1.163</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -1720,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E28">
         <v>23.41</v>
@@ -1729,13 +1037,10 @@
         <v>1.161</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -1755,13 +1060,10 @@
         <v>1.145</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>12</v>
       </c>
@@ -1778,16 +1080,13 @@
         <v>24.44</v>
       </c>
       <c r="F30">
-        <v>1.438</v>
+        <v>1.4379999999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1807,13 +1106,10 @@
         <v>1.865</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
@@ -1830,16 +1126,13 @@
         <v>29.19</v>
       </c>
       <c r="F32">
-        <v>2.164</v>
+        <v>2.1640000000000001</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1856,16 +1149,13 @@
         <v>26.88</v>
       </c>
       <c r="F33">
-        <v>1.521</v>
+        <v>1.5209999999999999</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12</v>
       </c>
@@ -1885,13 +1175,10 @@
         <v>1.042</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -1908,16 +1195,13 @@
         <v>21.59</v>
       </c>
       <c r="F35">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12</v>
       </c>
@@ -1928,22 +1212,19 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="E36">
         <v>29.96</v>
       </c>
       <c r="F36">
-        <v>2.361</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -1954,22 +1235,19 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37">
         <v>23.78</v>
       </c>
       <c r="F37">
-        <v>0.817</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -1980,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="D38">
-        <v>1.076</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="E38">
         <v>26.55</v>
@@ -1989,13 +1267,10 @@
         <v>1.575</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
@@ -2012,16 +1287,13 @@
         <v>23.48</v>
       </c>
       <c r="F39">
-        <v>1.076</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -2038,16 +1310,13 @@
         <v>24.69</v>
       </c>
       <c r="F40">
-        <v>1.442</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -2058,7 +1327,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>21.62</v>
@@ -2067,13 +1336,10 @@
         <v>1.012</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -2084,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="D42">
-        <v>0.418</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="E42">
         <v>26.19</v>
@@ -2093,13 +1359,10 @@
         <v>1.702</v>
       </c>
       <c r="G42" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -2119,13 +1382,10 @@
         <v>0.71</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2136,22 +1396,19 @@
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>28.92</v>
       </c>
       <c r="F44">
-        <v>2.118</v>
+        <v>2.1179999999999999</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -2168,16 +1425,13 @@
         <v>27.22</v>
       </c>
       <c r="F45">
-        <v>1.807</v>
+        <v>1.8069999999999999</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -2188,22 +1442,19 @@
         <v>20</v>
       </c>
       <c r="D46">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E46">
         <v>23.9</v>
       </c>
       <c r="F46">
-        <v>1.338</v>
+        <v>1.3380000000000001</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -2214,22 +1465,19 @@
         <v>21</v>
       </c>
       <c r="D47">
-        <v>0.681</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="E47">
         <v>28.84</v>
       </c>
       <c r="F47">
-        <v>1.953</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -2240,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="D48">
-        <v>0.287</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="E48">
         <v>23.65</v>
@@ -2249,13 +1497,10 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -2266,7 +1511,7 @@
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>24.89</v>
@@ -2275,13 +1520,10 @@
         <v>1.466</v>
       </c>
       <c r="G49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
@@ -2298,16 +1540,13 @@
         <v>25.24</v>
       </c>
       <c r="F50">
-        <v>1.684</v>
+        <v>1.6839999999999999</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -2324,16 +1563,13 @@
         <v>26.62</v>
       </c>
       <c r="F51">
-        <v>2.447</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -2350,16 +1586,13 @@
         <v>26.46</v>
       </c>
       <c r="F52">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="G52" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>16</v>
       </c>
@@ -2370,22 +1603,19 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>0.814</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="E53">
         <v>24.33</v>
       </c>
       <c r="F53">
-        <v>1.102</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="G53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16</v>
       </c>
@@ -2396,22 +1626,19 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="E54">
         <v>20.68</v>
       </c>
       <c r="F54">
-        <v>0.783</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
@@ -2428,16 +1655,13 @@
         <v>29.45</v>
       </c>
       <c r="F55">
-        <v>2.801</v>
+        <v>2.8010000000000002</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16</v>
       </c>
@@ -2454,16 +1678,13 @@
         <v>21.17</v>
       </c>
       <c r="F56">
-        <v>0.853</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
@@ -2474,22 +1695,19 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>0.915</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="E57">
         <v>26.96</v>
       </c>
       <c r="F57">
-        <v>1.685</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
@@ -2500,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <v>0.787</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="E58">
         <v>24.97</v>
@@ -2509,13 +1727,10 @@
         <v>1.393</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>16</v>
       </c>
@@ -2535,13 +1750,10 @@
         <v>1.978</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>16</v>
       </c>
@@ -2561,13 +1773,10 @@
         <v>1.212</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>16</v>
       </c>
@@ -2587,13 +1796,10 @@
         <v>2.17</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>16</v>
       </c>
@@ -2610,16 +1816,13 @@
         <v>24.31</v>
       </c>
       <c r="F62">
-        <v>0.984</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>16</v>
       </c>
@@ -2636,16 +1839,13 @@
         <v>21.53</v>
       </c>
       <c r="F63">
-        <v>0.768</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16</v>
       </c>
@@ -2656,22 +1856,19 @@
         <v>13</v>
       </c>
       <c r="D64">
-        <v>0.348</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E64">
         <v>23.36</v>
       </c>
       <c r="F64">
-        <v>1.057</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>16</v>
       </c>
@@ -2682,22 +1879,19 @@
         <v>14</v>
       </c>
       <c r="D65">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="E65">
         <v>29.14</v>
       </c>
       <c r="F65">
-        <v>2.791</v>
+        <v>2.7909999999999999</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
@@ -2717,13 +1911,10 @@
         <v>1.31</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16</v>
       </c>
@@ -2734,22 +1925,19 @@
         <v>16</v>
       </c>
       <c r="D67">
-        <v>0.943</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="E67">
         <v>28.47</v>
       </c>
       <c r="F67">
-        <v>1.628</v>
+        <v>1.6279999999999999</v>
       </c>
       <c r="G67" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -2760,22 +1948,19 @@
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E68">
         <v>22.14</v>
       </c>
       <c r="F68">
-        <v>0.867</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -2786,7 +1971,7 @@
         <v>18</v>
       </c>
       <c r="D69">
-        <v>1.017</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="E69">
         <v>28.7</v>
@@ -2795,13 +1980,10 @@
         <v>1.966</v>
       </c>
       <c r="G69" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -2818,16 +2000,13 @@
         <v>26.71</v>
       </c>
       <c r="F70">
-        <v>1.517</v>
+        <v>1.5169999999999999</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
@@ -2847,13 +2026,10 @@
         <v>2.766</v>
       </c>
       <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
@@ -2870,16 +2046,13 @@
         <v>19.71</v>
       </c>
       <c r="F72">
-        <v>0.679</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
@@ -2899,13 +2072,10 @@
         <v>1.101</v>
       </c>
       <c r="G73" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16</v>
       </c>
@@ -2916,7 +2086,7 @@
         <v>23</v>
       </c>
       <c r="D74">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E74">
         <v>23.64</v>
@@ -2925,13 +2095,10 @@
         <v>1.107</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
@@ -2948,16 +2115,13 @@
         <v>21.24</v>
       </c>
       <c r="F75">
-        <v>1.078</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>16</v>
       </c>
@@ -2974,16 +2138,13 @@
         <v>20.98</v>
       </c>
       <c r="F76">
-        <v>1.158</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="G76" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3003,13 +2164,10 @@
         <v>0.97</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>16</v>
       </c>
@@ -3020,22 +2178,19 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <v>29.15</v>
       </c>
       <c r="F78">
-        <v>2.301</v>
+        <v>2.3010000000000002</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>16</v>
       </c>
@@ -3046,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>0.281</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="E79">
         <v>26.76</v>
@@ -3055,13 +2210,10 @@
         <v>1.875</v>
       </c>
       <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16</v>
       </c>
@@ -3075,19 +2227,16 @@
         <v>0.41</v>
       </c>
       <c r="E80">
-        <v>18.69</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="F80">
-        <v>0.689</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>16</v>
       </c>
@@ -3104,16 +2253,13 @@
         <v>22.16</v>
       </c>
       <c r="F81">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>16</v>
       </c>
@@ -3130,16 +2276,13 @@
         <v>21.98</v>
       </c>
       <c r="F82">
-        <v>1.164</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>16</v>
       </c>
@@ -3150,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="D83">
-        <v>0.256</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="E83">
         <v>22.84</v>
@@ -3159,13 +2302,10 @@
         <v>1.206</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>16</v>
       </c>
@@ -3185,13 +2325,10 @@
         <v>0.875</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>16</v>
       </c>
@@ -3202,22 +2339,19 @@
         <v>9</v>
       </c>
       <c r="D85">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="E85">
         <v>27.49</v>
       </c>
       <c r="F85">
-        <v>2.071</v>
+        <v>2.0710000000000002</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>16</v>
       </c>
@@ -3228,22 +2362,19 @@
         <v>10</v>
       </c>
       <c r="D86">
-        <v>0.202</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E86">
         <v>33.4</v>
       </c>
       <c r="F86">
-        <v>2.975</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>16</v>
       </c>
@@ -3263,13 +2394,10 @@
         <v>2.37</v>
       </c>
       <c r="G87" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>16</v>
       </c>
@@ -3286,16 +2414,13 @@
         <v>26.73</v>
       </c>
       <c r="F88">
-        <v>1.465</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="G88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>16</v>
       </c>
@@ -3312,16 +2437,13 @@
         <v>22.99</v>
       </c>
       <c r="F89">
-        <v>1.372</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>16</v>
       </c>
@@ -3332,22 +2454,19 @@
         <v>14</v>
       </c>
       <c r="D90">
-        <v>0.272</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="E90">
         <v>23.09</v>
       </c>
       <c r="F90">
-        <v>1.015</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>16</v>
       </c>
@@ -3358,7 +2477,7 @@
         <v>15</v>
       </c>
       <c r="D91">
-        <v>0.792</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="E91">
         <v>29.36</v>
@@ -3367,13 +2486,10 @@
         <v>2.14</v>
       </c>
       <c r="G91" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>16</v>
       </c>
@@ -3384,22 +2500,19 @@
         <v>16</v>
       </c>
       <c r="D92">
-        <v>1.596</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="E92">
         <v>24.82</v>
       </c>
       <c r="F92">
-        <v>1.227</v>
+        <v>1.2270000000000001</v>
       </c>
       <c r="G92" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>16</v>
       </c>
@@ -3419,13 +2532,10 @@
         <v>1.657</v>
       </c>
       <c r="G93" t="s">
-        <v>8</v>
-      </c>
-      <c r="H93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>16</v>
       </c>
@@ -3445,13 +2555,10 @@
         <v>1.242</v>
       </c>
       <c r="G94" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>16</v>
       </c>
@@ -3462,22 +2569,19 @@
         <v>19</v>
       </c>
       <c r="D95">
-        <v>0.257</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E95">
         <v>25.12</v>
       </c>
       <c r="F95">
-        <v>1.434</v>
+        <v>1.4339999999999999</v>
       </c>
       <c r="G95" t="s">
-        <v>8</v>
-      </c>
-      <c r="H95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>16</v>
       </c>
@@ -3488,7 +2592,7 @@
         <v>20</v>
       </c>
       <c r="D96">
-        <v>0.612</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="E96">
         <v>23.04</v>
@@ -3497,13 +2601,10 @@
         <v>1.03</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>16</v>
       </c>
@@ -3514,22 +2615,19 @@
         <v>21</v>
       </c>
       <c r="D97">
-        <v>0.331</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="E97">
         <v>23.05</v>
       </c>
       <c r="F97">
-        <v>0.806</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="G97" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16</v>
       </c>
@@ -3540,22 +2638,19 @@
         <v>22</v>
       </c>
       <c r="D98">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="E98">
         <v>23.1</v>
       </c>
       <c r="F98">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G98" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>16</v>
       </c>
@@ -3572,16 +2667,13 @@
         <v>24.48</v>
       </c>
       <c r="F99">
-        <v>0.516</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="G99" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>16</v>
       </c>
@@ -3592,22 +2684,19 @@
         <v>24</v>
       </c>
       <c r="D100">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="E100">
         <v>25.25</v>
       </c>
       <c r="F100">
-        <v>1.037</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="G100" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>16</v>
       </c>
@@ -3618,22 +2707,19 @@
         <v>25</v>
       </c>
       <c r="D101">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="E101">
         <v>25.12</v>
       </c>
       <c r="F101">
-        <v>1.154</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="G101" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>20</v>
       </c>
@@ -3653,13 +2739,10 @@
         <v>1.181</v>
       </c>
       <c r="G102" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>20</v>
       </c>
@@ -3670,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E103">
         <v>23.65</v>
@@ -3679,13 +2762,10 @@
         <v>1.018</v>
       </c>
       <c r="G103" t="s">
-        <v>11</v>
-      </c>
-      <c r="H103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20</v>
       </c>
@@ -3705,13 +2785,10 @@
         <v>1.502</v>
       </c>
       <c r="G104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>20</v>
       </c>
@@ -3731,13 +2808,10 @@
         <v>1.454</v>
       </c>
       <c r="G105" t="s">
-        <v>11</v>
-      </c>
-      <c r="H105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>20</v>
       </c>
@@ -3757,13 +2831,10 @@
         <v>1.099</v>
       </c>
       <c r="G106" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20</v>
       </c>
@@ -3774,7 +2845,7 @@
         <v>6</v>
       </c>
       <c r="D107">
-        <v>0.199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="E107">
         <v>20.88</v>
@@ -3783,13 +2854,10 @@
         <v>0.78</v>
       </c>
       <c r="G107" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20</v>
       </c>
@@ -3800,22 +2868,19 @@
         <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E108">
         <v>26.42</v>
       </c>
       <c r="F108">
-        <v>1.783</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="G108" t="s">
-        <v>8</v>
-      </c>
-      <c r="H108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>20</v>
       </c>
@@ -3835,13 +2900,10 @@
         <v>1.571</v>
       </c>
       <c r="G109" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20</v>
       </c>
@@ -3858,16 +2920,13 @@
         <v>20.72</v>
       </c>
       <c r="F110">
-        <v>0.909</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20</v>
       </c>
@@ -3887,13 +2946,10 @@
         <v>1.2</v>
       </c>
       <c r="G111" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>20</v>
       </c>
@@ -3913,13 +2969,10 @@
         <v>1.228</v>
       </c>
       <c r="G112" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>20</v>
       </c>
@@ -3930,7 +2983,7 @@
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E113">
         <v>23.6</v>
@@ -3939,13 +2992,10 @@
         <v>1.113</v>
       </c>
       <c r="G113" t="s">
-        <v>8</v>
-      </c>
-      <c r="H113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20</v>
       </c>
@@ -3962,16 +3012,13 @@
         <v>28.97</v>
       </c>
       <c r="F114">
-        <v>2.051</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="G114" t="s">
-        <v>8</v>
-      </c>
-      <c r="H114" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20</v>
       </c>
@@ -3982,7 +3029,7 @@
         <v>14</v>
       </c>
       <c r="D115">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E115">
         <v>26.46</v>
@@ -3991,13 +3038,10 @@
         <v>1.706</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>20</v>
       </c>
@@ -4008,7 +3052,7 @@
         <v>15</v>
       </c>
       <c r="D116">
-        <v>0.179</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E116">
         <v>30.3</v>
@@ -4017,13 +3061,10 @@
         <v>2.069</v>
       </c>
       <c r="G116" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>20</v>
       </c>
@@ -4034,22 +3075,22 @@
         <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E117">
         <v>23.03</v>
       </c>
       <c r="F117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>20</v>
       </c>
@@ -4069,13 +3110,10 @@
         <v>1.974</v>
       </c>
       <c r="G118" t="s">
-        <v>8</v>
-      </c>
-      <c r="H118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20</v>
       </c>
@@ -4092,16 +3130,13 @@
         <v>22.02</v>
       </c>
       <c r="F119">
-        <v>0.864</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="G119" t="s">
-        <v>8</v>
-      </c>
-      <c r="H119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20</v>
       </c>
@@ -4112,7 +3147,7 @@
         <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E120">
         <v>26.5</v>
@@ -4121,13 +3156,10 @@
         <v>1.58</v>
       </c>
       <c r="G120" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20</v>
       </c>
@@ -4147,13 +3179,10 @@
         <v>2.073</v>
       </c>
       <c r="G121" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>20</v>
       </c>
@@ -4164,22 +3193,19 @@
         <v>21</v>
       </c>
       <c r="D122">
-        <v>0.395</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="E122">
         <v>27.93</v>
       </c>
       <c r="F122">
-        <v>1.811</v>
+        <v>1.8109999999999999</v>
       </c>
       <c r="G122" t="s">
-        <v>8</v>
-      </c>
-      <c r="H122" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>20</v>
       </c>
@@ -4190,22 +3216,19 @@
         <v>22</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E123">
         <v>20.86</v>
       </c>
       <c r="F123">
-        <v>0.788</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="G123" t="s">
-        <v>8</v>
-      </c>
-      <c r="H123" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>20</v>
       </c>
@@ -4216,7 +3239,7 @@
         <v>23</v>
       </c>
       <c r="D124">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E124">
         <v>21.72</v>
@@ -4225,13 +3248,10 @@
         <v>0.79</v>
       </c>
       <c r="G124" t="s">
-        <v>8</v>
-      </c>
-      <c r="H124" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>20</v>
       </c>
@@ -4242,7 +3262,7 @@
         <v>24</v>
       </c>
       <c r="D125">
-        <v>0.721</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="E125">
         <v>27.28</v>
@@ -4251,13 +3271,10 @@
         <v>1.847</v>
       </c>
       <c r="G125" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20</v>
       </c>
@@ -4274,16 +3291,13 @@
         <v>20.74</v>
       </c>
       <c r="F126">
-        <v>0.595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G126" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>20</v>
       </c>
@@ -4300,16 +3314,13 @@
         <v>25.22</v>
       </c>
       <c r="F127">
-        <v>1.558</v>
+        <v>1.5580000000000001</v>
       </c>
       <c r="G127" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>20</v>
       </c>
@@ -4329,13 +3340,10 @@
         <v>1.141</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>20</v>
       </c>
@@ -4346,22 +3354,19 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>0.327</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="E129">
         <v>23.43</v>
       </c>
       <c r="F129">
-        <v>1.156</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>20</v>
       </c>
@@ -4372,22 +3377,19 @@
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E130">
         <v>25.11</v>
       </c>
       <c r="F130">
-        <v>1.154</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>20</v>
       </c>
@@ -4398,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="D131">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="E131">
         <v>24.53</v>
@@ -4407,13 +3409,10 @@
         <v>1.343</v>
       </c>
       <c r="G131" t="s">
-        <v>8</v>
-      </c>
-      <c r="H131" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>20</v>
       </c>
@@ -4430,16 +3429,13 @@
         <v>27.41</v>
       </c>
       <c r="F132">
-        <v>1.942</v>
+        <v>1.9419999999999999</v>
       </c>
       <c r="G132" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>20</v>
       </c>
@@ -4459,13 +3455,10 @@
         <v>1.161</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>20</v>
       </c>
@@ -4476,7 +3469,7 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E134">
         <v>22.52</v>
@@ -4485,13 +3478,10 @@
         <v>0.875</v>
       </c>
       <c r="G134" t="s">
-        <v>8</v>
-      </c>
-      <c r="H134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>20</v>
       </c>
@@ -4502,22 +3492,19 @@
         <v>9</v>
       </c>
       <c r="D135">
-        <v>0.276</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E135">
         <v>25.47</v>
       </c>
       <c r="F135">
-        <v>1.317</v>
+        <v>1.3169999999999999</v>
       </c>
       <c r="G135" t="s">
-        <v>8</v>
-      </c>
-      <c r="H135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>20</v>
       </c>
@@ -4528,22 +3515,19 @@
         <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E136">
         <v>36.33</v>
       </c>
       <c r="F136">
-        <v>2.457</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="G136" t="s">
-        <v>8</v>
-      </c>
-      <c r="H136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>20</v>
       </c>
@@ -4560,16 +3544,13 @@
         <v>21.91</v>
       </c>
       <c r="F137">
-        <v>0.822</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="G137" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>20</v>
       </c>
@@ -4586,16 +3567,13 @@
         <v>20.27</v>
       </c>
       <c r="F138">
-        <v>0.807</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="G138" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>20</v>
       </c>
@@ -4615,13 +3593,10 @@
         <v>1.371</v>
       </c>
       <c r="G139" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>20</v>
       </c>
@@ -4632,22 +3607,19 @@
         <v>14</v>
       </c>
       <c r="D140">
-        <v>0.796</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="E140">
         <v>23.18</v>
       </c>
       <c r="F140">
-        <v>1.261</v>
+        <v>1.2609999999999999</v>
       </c>
       <c r="G140" t="s">
-        <v>8</v>
-      </c>
-      <c r="H140" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>20</v>
       </c>
@@ -4658,22 +3630,19 @@
         <v>15</v>
       </c>
       <c r="D141">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="E141">
         <v>23</v>
       </c>
       <c r="F141">
-        <v>1.241</v>
+        <v>1.2410000000000001</v>
       </c>
       <c r="G141" t="s">
-        <v>8</v>
-      </c>
-      <c r="H141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>20</v>
       </c>
@@ -4690,16 +3659,13 @@
         <v>22.4</v>
       </c>
       <c r="F142">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="G142" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20</v>
       </c>
@@ -4710,22 +3676,19 @@
         <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E143">
         <v>21.33</v>
       </c>
       <c r="F143">
-        <v>0.841</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="G143" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>20</v>
       </c>
@@ -4736,7 +3699,7 @@
         <v>18</v>
       </c>
       <c r="D144">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="E144">
         <v>25.88</v>
@@ -4745,13 +3708,10 @@
         <v>1.218</v>
       </c>
       <c r="G144" t="s">
-        <v>11</v>
-      </c>
-      <c r="H144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>20</v>
       </c>
@@ -4762,7 +3722,7 @@
         <v>19</v>
       </c>
       <c r="D145">
-        <v>0.422</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="E145">
         <v>29.15</v>
@@ -4771,13 +3731,10 @@
         <v>2.214</v>
       </c>
       <c r="G145" t="s">
-        <v>8</v>
-      </c>
-      <c r="H145" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>20</v>
       </c>
@@ -4788,7 +3745,7 @@
         <v>20</v>
       </c>
       <c r="D146">
-        <v>0.294</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="E146">
         <v>21.18</v>
@@ -4797,13 +3754,10 @@
         <v>0.72</v>
       </c>
       <c r="G146" t="s">
-        <v>8</v>
-      </c>
-      <c r="H146" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>20</v>
       </c>
@@ -4823,13 +3777,10 @@
         <v>2.113</v>
       </c>
       <c r="G147" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>20</v>
       </c>
@@ -4840,22 +3791,19 @@
         <v>22</v>
       </c>
       <c r="D148">
-        <v>0.292</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E148">
         <v>32.72</v>
       </c>
       <c r="F148">
-        <v>3.156</v>
+        <v>3.1560000000000001</v>
       </c>
       <c r="G148" t="s">
-        <v>8</v>
-      </c>
-      <c r="H148" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>20</v>
       </c>
@@ -4866,7 +3814,7 @@
         <v>23</v>
       </c>
       <c r="D149">
-        <v>0.306</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E149">
         <v>25.95</v>
@@ -4875,13 +3823,10 @@
         <v>1.673</v>
       </c>
       <c r="G149" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>20</v>
       </c>
@@ -4892,22 +3837,19 @@
         <v>24</v>
       </c>
       <c r="D150">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="E150">
         <v>24.49</v>
       </c>
       <c r="F150">
-        <v>1.156</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="G150" t="s">
-        <v>8</v>
-      </c>
-      <c r="H150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>20</v>
       </c>
@@ -4918,22 +3860,19 @@
         <v>25</v>
       </c>
       <c r="D151">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="E151">
         <v>23.33</v>
       </c>
       <c r="F151">
-        <v>1.025</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="G151" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24</v>
       </c>
@@ -4953,13 +3892,10 @@
         <v>1.976</v>
       </c>
       <c r="G152" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24</v>
       </c>
@@ -4970,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="D153">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E153">
         <v>23.94</v>
@@ -4979,13 +3915,10 @@
         <v>1.236</v>
       </c>
       <c r="G153" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24</v>
       </c>
@@ -4996,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="D154">
-        <v>1.027</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="E154">
         <v>28.72</v>
@@ -5005,13 +3938,10 @@
         <v>1.895</v>
       </c>
       <c r="G154" t="s">
-        <v>8</v>
-      </c>
-      <c r="H154" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>24</v>
       </c>
@@ -5022,22 +3952,19 @@
         <v>4</v>
       </c>
       <c r="D155">
-        <v>0.854</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="E155">
         <v>23.36</v>
       </c>
       <c r="F155">
-        <v>0.713</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="G155" t="s">
-        <v>8</v>
-      </c>
-      <c r="H155" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>24</v>
       </c>
@@ -5054,16 +3981,13 @@
         <v>29.63</v>
       </c>
       <c r="F156">
-        <v>2.314</v>
+        <v>2.3140000000000001</v>
       </c>
       <c r="G156" t="s">
-        <v>8</v>
-      </c>
-      <c r="H156" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>24</v>
       </c>
@@ -5080,16 +4004,13 @@
         <v>21.54</v>
       </c>
       <c r="F157">
-        <v>1.108</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="G157" t="s">
-        <v>11</v>
-      </c>
-      <c r="H157" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>24</v>
       </c>
@@ -5100,7 +4021,7 @@
         <v>7</v>
       </c>
       <c r="D158">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="E158">
         <v>21.57</v>
@@ -5109,13 +4030,10 @@
         <v>1.012</v>
       </c>
       <c r="G158" t="s">
-        <v>11</v>
-      </c>
-      <c r="H158" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24</v>
       </c>
@@ -5126,22 +4044,19 @@
         <v>8</v>
       </c>
       <c r="D159">
-        <v>0.834</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="E159">
         <v>31.11</v>
       </c>
       <c r="F159">
-        <v>2.386</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="G159" t="s">
-        <v>8</v>
-      </c>
-      <c r="H159" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>24</v>
       </c>
@@ -5152,22 +4067,19 @@
         <v>9</v>
       </c>
       <c r="D160">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="E160">
         <v>23.91</v>
       </c>
       <c r="F160">
-        <v>0.906</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="G160" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>24</v>
       </c>
@@ -5178,7 +4090,7 @@
         <v>10</v>
       </c>
       <c r="D161">
-        <v>0.689</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="E161">
         <v>30.84</v>
@@ -5187,13 +4099,10 @@
         <v>2.423</v>
       </c>
       <c r="G161" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>24</v>
       </c>
@@ -5204,7 +4113,7 @@
         <v>11</v>
       </c>
       <c r="D162">
-        <v>0.162</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="E162">
         <v>26.59</v>
@@ -5213,13 +4122,10 @@
         <v>1.125</v>
       </c>
       <c r="G162" t="s">
-        <v>11</v>
-      </c>
-      <c r="H162" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>24</v>
       </c>
@@ -5230,22 +4136,19 @@
         <v>12</v>
       </c>
       <c r="D163">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="E163">
-        <v>19.69</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="F163">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G163" t="s">
-        <v>11</v>
-      </c>
-      <c r="H163" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>24</v>
       </c>
@@ -5256,22 +4159,19 @@
         <v>13</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E164">
         <v>27.78</v>
       </c>
       <c r="F164">
-        <v>2.178</v>
+        <v>2.1779999999999999</v>
       </c>
       <c r="G164" t="s">
-        <v>11</v>
-      </c>
-      <c r="H164" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>24</v>
       </c>
@@ -5282,7 +4182,7 @@
         <v>14</v>
       </c>
       <c r="D165">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E165">
         <v>26.51</v>
@@ -5291,13 +4191,10 @@
         <v>1.635</v>
       </c>
       <c r="G165" t="s">
-        <v>8</v>
-      </c>
-      <c r="H165" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>24</v>
       </c>
@@ -5308,22 +4205,19 @@
         <v>15</v>
       </c>
       <c r="D166">
-        <v>0.427</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="E166">
         <v>23.85</v>
       </c>
       <c r="F166">
-        <v>1.261</v>
+        <v>1.2609999999999999</v>
       </c>
       <c r="G166" t="s">
-        <v>8</v>
-      </c>
-      <c r="H166" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>24</v>
       </c>
@@ -5343,13 +4237,10 @@
         <v>0.995</v>
       </c>
       <c r="G167" t="s">
-        <v>11</v>
-      </c>
-      <c r="H167" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>24</v>
       </c>
@@ -5366,16 +4257,13 @@
         <v>29.38</v>
       </c>
       <c r="F168">
-        <v>2.275</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="G168" t="s">
-        <v>11</v>
-      </c>
-      <c r="H168" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>24</v>
       </c>
@@ -5386,22 +4274,19 @@
         <v>18</v>
       </c>
       <c r="D169">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E169">
         <v>26.87</v>
       </c>
       <c r="F169">
-        <v>1.832</v>
+        <v>1.8320000000000001</v>
       </c>
       <c r="G169" t="s">
-        <v>11</v>
-      </c>
-      <c r="H169" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>24</v>
       </c>
@@ -5412,22 +4297,19 @@
         <v>19</v>
       </c>
       <c r="D170">
-        <v>0.331</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="E170">
         <v>25.92</v>
       </c>
       <c r="F170">
-        <v>1.106</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="G170" t="s">
-        <v>8</v>
-      </c>
-      <c r="H170" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>24</v>
       </c>
@@ -5438,22 +4320,19 @@
         <v>20</v>
       </c>
       <c r="D171">
-        <v>0.199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="E171">
         <v>22.19</v>
       </c>
       <c r="F171">
-        <v>0.907</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="G171" t="s">
-        <v>8</v>
-      </c>
-      <c r="H171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>24</v>
       </c>
@@ -5470,16 +4349,13 @@
         <v>28.53</v>
       </c>
       <c r="F172">
-        <v>1.777</v>
+        <v>1.7769999999999999</v>
       </c>
       <c r="G172" t="s">
-        <v>8</v>
-      </c>
-      <c r="H172" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>24</v>
       </c>
@@ -5496,16 +4372,13 @@
         <v>21.56</v>
       </c>
       <c r="F173">
-        <v>0.864</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="G173" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>24</v>
       </c>
@@ -5516,22 +4389,19 @@
         <v>23</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E174">
         <v>27.38</v>
       </c>
       <c r="F174">
-        <v>1.924</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="G174" t="s">
-        <v>11</v>
-      </c>
-      <c r="H174" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>24</v>
       </c>
@@ -5548,16 +4418,13 @@
         <v>25.5</v>
       </c>
       <c r="F175">
-        <v>1.257</v>
+        <v>1.2569999999999999</v>
       </c>
       <c r="G175" t="s">
-        <v>8</v>
-      </c>
-      <c r="H175" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>24</v>
       </c>
@@ -5568,22 +4435,19 @@
         <v>25</v>
       </c>
       <c r="D176">
-        <v>0.347</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="E176">
         <v>21.8</v>
       </c>
       <c r="F176">
-        <v>0.921</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="G176" t="s">
-        <v>8</v>
-      </c>
-      <c r="H176" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>24</v>
       </c>
@@ -5594,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="E177">
         <v>22.14</v>
@@ -5603,13 +4467,10 @@
         <v>1.046</v>
       </c>
       <c r="G177" t="s">
-        <v>8</v>
-      </c>
-      <c r="H177" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -5629,13 +4490,13 @@
         <v>0.49</v>
       </c>
       <c r="G178" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H178" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>24</v>
       </c>
@@ -5646,22 +4507,19 @@
         <v>3</v>
       </c>
       <c r="D179">
-        <v>0.329</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="E179">
         <v>24.56</v>
       </c>
       <c r="F179">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="G179" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>24</v>
       </c>
@@ -5672,22 +4530,19 @@
         <v>4</v>
       </c>
       <c r="D180">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E180">
         <v>23.28</v>
       </c>
       <c r="F180">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="G180" t="s">
-        <v>8</v>
-      </c>
-      <c r="H180" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>24</v>
       </c>
@@ -5698,22 +4553,19 @@
         <v>5</v>
       </c>
       <c r="D181">
-        <v>0.238</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="E181">
         <v>22.09</v>
       </c>
       <c r="F181">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="G181" t="s">
-        <v>11</v>
-      </c>
-      <c r="H181" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>24</v>
       </c>
@@ -5724,22 +4576,19 @@
         <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E182">
         <v>21.51</v>
       </c>
       <c r="F182">
-        <v>0.714</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G182" t="s">
-        <v>11</v>
-      </c>
-      <c r="H182" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>24</v>
       </c>
@@ -5756,16 +4605,13 @@
         <v>23.86</v>
       </c>
       <c r="F183">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G183" t="s">
-        <v>11</v>
-      </c>
-      <c r="H183" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>24</v>
       </c>
@@ -5776,22 +4622,19 @@
         <v>8</v>
       </c>
       <c r="D184">
-        <v>0.426</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="E184">
         <v>22.06</v>
       </c>
       <c r="F184">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="G184" t="s">
-        <v>8</v>
-      </c>
-      <c r="H184" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>24</v>
       </c>
@@ -5808,16 +4651,13 @@
         <v>27.32</v>
       </c>
       <c r="F185">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="G185" t="s">
-        <v>8</v>
-      </c>
-      <c r="H185" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>24</v>
       </c>
@@ -5828,7 +4668,7 @@
         <v>10</v>
       </c>
       <c r="D186">
-        <v>0.674</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="E186">
         <v>23.93</v>
@@ -5837,13 +4677,10 @@
         <v>1.149</v>
       </c>
       <c r="G186" t="s">
-        <v>8</v>
-      </c>
-      <c r="H186" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>24</v>
       </c>
@@ -5854,7 +4691,7 @@
         <v>11</v>
       </c>
       <c r="D187">
-        <v>0.801</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="E187">
         <v>23.36</v>
@@ -5863,13 +4700,10 @@
         <v>1.101</v>
       </c>
       <c r="G187" t="s">
-        <v>11</v>
-      </c>
-      <c r="H187" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>24</v>
       </c>
@@ -5886,16 +4720,13 @@
         <v>20.96</v>
       </c>
       <c r="F188">
-        <v>0.675</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="G188" t="s">
-        <v>8</v>
-      </c>
-      <c r="H188" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>24</v>
       </c>
@@ -5906,22 +4737,19 @@
         <v>13</v>
       </c>
       <c r="D189">
-        <v>0.269</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="E189">
         <v>27.36</v>
       </c>
       <c r="F189">
-        <v>1.189</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="G189" t="s">
-        <v>8</v>
-      </c>
-      <c r="H189" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>24</v>
       </c>
@@ -5938,16 +4766,13 @@
         <v>20.11</v>
       </c>
       <c r="F190">
-        <v>0.633</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="G190" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>24</v>
       </c>
@@ -5964,16 +4789,13 @@
         <v>27.79</v>
       </c>
       <c r="F191">
-        <v>1.586</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="G191" t="s">
-        <v>11</v>
-      </c>
-      <c r="H191" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>24</v>
       </c>
@@ -5984,22 +4806,19 @@
         <v>17</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E192">
         <v>22.54</v>
       </c>
       <c r="F192">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="G192" t="s">
-        <v>11</v>
-      </c>
-      <c r="H192" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>24</v>
       </c>
@@ -6019,13 +4838,10 @@
         <v>1.875</v>
       </c>
       <c r="G193" t="s">
-        <v>11</v>
-      </c>
-      <c r="H193" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>24</v>
       </c>
@@ -6045,13 +4861,10 @@
         <v>0.95</v>
       </c>
       <c r="G194" t="s">
-        <v>11</v>
-      </c>
-      <c r="H194" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>24</v>
       </c>
@@ -6062,7 +4875,7 @@
         <v>20</v>
       </c>
       <c r="D195">
-        <v>0.172</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="E195">
         <v>20.47</v>
@@ -6071,13 +4884,10 @@
         <v>0.995</v>
       </c>
       <c r="G195" t="s">
-        <v>11</v>
-      </c>
-      <c r="H195" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>24</v>
       </c>
@@ -6088,22 +4898,19 @@
         <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E196">
         <v>20.45</v>
       </c>
       <c r="F196">
-        <v>0.994</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="G196" t="s">
-        <v>11</v>
-      </c>
-      <c r="H196" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>24</v>
       </c>
@@ -6114,7 +4921,7 @@
         <v>22</v>
       </c>
       <c r="D197">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="E197">
         <v>28.16</v>
@@ -6123,13 +4930,10 @@
         <v>1.895</v>
       </c>
       <c r="G197" t="s">
-        <v>11</v>
-      </c>
-      <c r="H197" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>24</v>
       </c>
@@ -6146,16 +4950,13 @@
         <v>29.18</v>
       </c>
       <c r="F198">
-        <v>1.437</v>
+        <v>1.4370000000000001</v>
       </c>
       <c r="G198" t="s">
-        <v>11</v>
-      </c>
-      <c r="H198" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>24</v>
       </c>
@@ -6166,7 +4967,7 @@
         <v>24</v>
       </c>
       <c r="D199">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="E199">
         <v>22.43</v>
@@ -6175,13 +4976,10 @@
         <v>0.74</v>
       </c>
       <c r="G199" t="s">
-        <v>11</v>
-      </c>
-      <c r="H199" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>24</v>
       </c>
@@ -6192,7 +4990,7 @@
         <v>25</v>
       </c>
       <c r="D200">
-        <v>0.419</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="E200">
         <v>27.36</v>
@@ -6201,13 +4999,10 @@
         <v>1.66</v>
       </c>
       <c r="G200" t="s">
-        <v>11</v>
-      </c>
-      <c r="H200" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>24</v>
       </c>
@@ -6227,17 +5022,10 @@
         <v>0.878</v>
       </c>
       <c r="G201" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H201">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>